--- a/CashFlow/VTRS_cashflow.xlsx
+++ b/CashFlow/VTRS_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>13920000000.0</v>
+        <v>-741900000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>11119000000.0</v>
+        <v>-567700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7946200000.0</v>
+        <v>-461900000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5016400000.0</v>
+        <v>-461700000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2193400000.0</v>
+        <v>-512900000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-599700000.0</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-82700000.0</v>
+        <v>3923000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-112800000.0</v>
+        <v>3639000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
